--- a/Verbrauchsgeräte/assets/ANLAGE Abfrageformular Teilantrag Verbrauchsgeräte.xlsx
+++ b/Verbrauchsgeräte/assets/ANLAGE Abfrageformular Teilantrag Verbrauchsgeräte.xlsx
@@ -251,6 +251,9 @@
     <t xml:space="preserve">Ja (Anlage mit Steuerung§14a alte Fassung)</t>
   </si>
   <si>
+    <t xml:space="preserve">Nein (nicht vor dem 01.01.2024)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ist trotz des Bestandsschutzes ein Wechsel in die freiwillige Steuerbarkeit gewünscht? (Radiobutton)</t>
   </si>
   <si>
@@ -384,9 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wird eine Leistungserhöhung der Hausanschlusssicherung benötigt? (Ja/Nein)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein (nicht vor dem 01.01.2024)</t>
   </si>
   <si>
     <t xml:space="preserve">Wählen Sie aus, welches Modul der Netzentgeldreduzierung nach §14a EnWG Sie anwenden möchten.</t>
@@ -1736,6 +1736,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1762,10 +1766,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2808,9 +2808,9 @@
   <dimension ref="A1:AE450"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="11" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5451,10 +5451,10 @@
     <row r="72" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="19"/>
-      <c r="C72" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="146"/>
+      <c r="C72" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="147"/>
       <c r="E72" s="145"/>
       <c r="F72" s="59" t="s">
         <v>12</v>
@@ -5491,7 +5491,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="19"/>
       <c r="C73" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>12</v>
@@ -5529,15 +5529,15 @@
     <row r="74" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="19"/>
-      <c r="C74" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="148"/>
-      <c r="E74" s="149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="150"/>
-      <c r="G74" s="151"/>
+      <c r="C74" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="149"/>
+      <c r="E74" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="151"/>
+      <c r="G74" s="152"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -5567,14 +5567,14 @@
       <c r="A75" s="5"/>
       <c r="B75" s="19"/>
       <c r="C75" s="143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="43"/>
       <c r="F75" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="152"/>
+      <c r="G75" s="153"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -5604,14 +5604,14 @@
       <c r="A76" s="5"/>
       <c r="B76" s="19"/>
       <c r="C76" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="146"/>
+        <v>80</v>
+      </c>
+      <c r="D76" s="147"/>
       <c r="E76" s="54"/>
       <c r="F76" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="152"/>
+      <c r="G76" s="153"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -5640,8 +5640,8 @@
     <row r="77" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
       <c r="B77" s="19"/>
-      <c r="C77" s="153" t="s">
-        <v>80</v>
+      <c r="C77" s="146" t="s">
+        <v>81</v>
       </c>
       <c r="D77" s="78" t="s">
         <v>12</v>
@@ -5679,8 +5679,8 @@
     <row r="78" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
       <c r="B78" s="19"/>
-      <c r="C78" s="153" t="s">
-        <v>81</v>
+      <c r="C78" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="D78" s="78" t="s">
         <v>12</v>
@@ -5720,8 +5720,8 @@
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
       <c r="B79" s="19"/>
-      <c r="C79" s="153" t="s">
-        <v>82</v>
+      <c r="C79" s="146" t="s">
+        <v>83</v>
       </c>
       <c r="D79" s="78" t="s">
         <v>12</v>
@@ -5762,7 +5762,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="19"/>
       <c r="C80" s="156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="157" t="s">
@@ -5799,7 +5799,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="19"/>
       <c r="C81" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81" s="138"/>
       <c r="E81" s="58"/>
@@ -5834,7 +5834,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="19"/>
       <c r="C82" s="93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82" s="138"/>
       <c r="E82" s="58"/>
@@ -5869,7 +5869,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="19"/>
       <c r="C83" s="93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D83" s="73"/>
       <c r="E83" s="89"/>
@@ -5904,7 +5904,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="19"/>
       <c r="C84" s="66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="66"/>
       <c r="E84" s="116" t="s">
@@ -5941,7 +5941,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="19"/>
       <c r="C85" s="159" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" s="73"/>
       <c r="E85" s="154"/>
@@ -5980,7 +5980,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="19"/>
       <c r="C86" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D86" s="138"/>
       <c r="E86" s="59" t="s">
@@ -6017,7 +6017,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="19"/>
       <c r="C87" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D87" s="92"/>
       <c r="E87" s="89"/>
@@ -6052,7 +6052,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="19"/>
       <c r="C88" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88" s="73"/>
       <c r="E88" s="89"/>
@@ -6087,7 +6087,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="19"/>
       <c r="C89" s="162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" s="163" t="s">
         <v>12</v>
@@ -6128,7 +6128,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="19"/>
       <c r="C90" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="26" t="s">
         <v>12</v>
@@ -6259,7 +6259,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -6298,7 +6298,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -6333,13 +6333,13 @@
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F95" s="88" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="D96" s="174"/>
       <c r="E96" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F96" s="164" t="s">
         <v>12</v>
@@ -6455,10 +6455,10 @@
         <v>12</v>
       </c>
       <c r="F98" s="61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G98" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -6526,15 +6526,15 @@
       <c r="A100" s="5"/>
       <c r="B100" s="19"/>
       <c r="C100" s="73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" s="180"/>
       <c r="E100" s="89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F100" s="43"/>
       <c r="G100" s="181" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -6565,15 +6565,15 @@
       <c r="A101" s="5"/>
       <c r="B101" s="19"/>
       <c r="C101" s="182" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D101" s="172"/>
       <c r="E101" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F101" s="183"/>
       <c r="G101" s="184" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -6604,15 +6604,15 @@
       <c r="A102" s="5"/>
       <c r="B102" s="19"/>
       <c r="C102" s="185" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D102" s="186"/>
       <c r="E102" s="187"/>
       <c r="F102" s="188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G102" s="189" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -6643,15 +6643,15 @@
       <c r="A103" s="5"/>
       <c r="B103" s="19"/>
       <c r="C103" s="172" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D103" s="172"/>
       <c r="E103" s="90"/>
       <c r="F103" s="190" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G103" s="191" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -6682,15 +6682,15 @@
       <c r="A104" s="5"/>
       <c r="B104" s="19"/>
       <c r="C104" s="95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="37"/>
       <c r="E104" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F104" s="190"/>
       <c r="G104" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -6721,14 +6721,14 @@
       <c r="A105" s="5"/>
       <c r="B105" s="19"/>
       <c r="C105" s="192" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D105" s="193"/>
       <c r="E105" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F105" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G105" s="40"/>
       <c r="H105" s="5"/>
@@ -6760,14 +6760,14 @@
       <c r="A106" s="5"/>
       <c r="B106" s="19"/>
       <c r="C106" s="95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D106" s="37"/>
       <c r="E106" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F106" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G106" s="40"/>
       <c r="H106" s="5"/>
@@ -6803,10 +6803,10 @@
       </c>
       <c r="D107" s="37"/>
       <c r="E107" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F107" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G107" s="40"/>
       <c r="H107" s="5"/>
@@ -6838,7 +6838,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="19"/>
       <c r="C108" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D108" s="37"/>
       <c r="E108" s="88" t="s">
@@ -6877,7 +6877,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="19"/>
       <c r="C109" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D109" s="37"/>
       <c r="E109" s="88" t="s">
@@ -6916,14 +6916,14 @@
       <c r="A110" s="5"/>
       <c r="B110" s="19"/>
       <c r="C110" s="128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D110" s="194"/>
       <c r="E110" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F110" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G110" s="40"/>
       <c r="H110" s="5"/>
@@ -6955,14 +6955,14 @@
       <c r="A111" s="5"/>
       <c r="B111" s="19"/>
       <c r="C111" s="128" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D111" s="195"/>
       <c r="E111" s="103" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G111" s="40"/>
       <c r="H111" s="5"/>
@@ -6994,14 +6994,14 @@
       <c r="A112" s="5"/>
       <c r="B112" s="19"/>
       <c r="C112" s="196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D112" s="197"/>
       <c r="E112" s="86" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G112" s="62"/>
       <c r="H112" s="5"/>
@@ -7033,7 +7033,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="19"/>
       <c r="C113" s="198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D113" s="199"/>
       <c r="E113" s="200" t="s">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="D114" s="204"/>
       <c r="E114" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F114" s="205" t="s">
         <v>12</v>
@@ -7111,14 +7111,14 @@
       <c r="A115" s="5"/>
       <c r="B115" s="19"/>
       <c r="C115" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D115" s="95"/>
       <c r="E115" s="103" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G115" s="207"/>
       <c r="H115" s="5"/>
@@ -7154,10 +7154,10 @@
       </c>
       <c r="D116" s="208"/>
       <c r="E116" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F116" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G116" s="78" t="s">
         <v>12</v>
@@ -7197,10 +7197,10 @@
         <v>41</v>
       </c>
       <c r="E117" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F117" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>12</v>
@@ -7238,10 +7238,10 @@
       </c>
       <c r="D118" s="208"/>
       <c r="E118" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F118" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G118" s="209" t="s">
         <v>12</v>
@@ -7281,10 +7281,10 @@
         <v>41</v>
       </c>
       <c r="E119" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F119" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G119" s="38" t="s">
         <v>12</v>
@@ -7322,10 +7322,10 @@
       </c>
       <c r="D120" s="208"/>
       <c r="E120" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F120" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G120" s="209" t="s">
         <v>12</v>
@@ -7365,10 +7365,10 @@
         <v>41</v>
       </c>
       <c r="E121" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F121" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G121" s="78" t="s">
         <v>12</v>
@@ -7406,10 +7406,10 @@
       </c>
       <c r="D122" s="210"/>
       <c r="E122" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F122" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G122" s="38" t="s">
         <v>12</v>
@@ -7443,14 +7443,14 @@
       <c r="A123" s="5"/>
       <c r="B123" s="19"/>
       <c r="C123" s="63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D123" s="211"/>
       <c r="E123" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F123" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G123" s="62"/>
       <c r="H123" s="5"/>
@@ -7482,7 +7482,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="19"/>
       <c r="C124" s="212" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D124" s="213"/>
       <c r="E124" s="157" t="s">
@@ -7519,14 +7519,14 @@
       <c r="A125" s="5"/>
       <c r="B125" s="19"/>
       <c r="C125" s="63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D125" s="91"/>
       <c r="E125" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G125" s="183"/>
       <c r="H125" s="5"/>
@@ -7558,14 +7558,14 @@
       <c r="A126" s="5"/>
       <c r="B126" s="19"/>
       <c r="C126" s="63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D126" s="91"/>
       <c r="E126" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F126" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G126" s="183"/>
       <c r="H126" s="5"/>
@@ -7597,14 +7597,14 @@
       <c r="A127" s="5"/>
       <c r="B127" s="19"/>
       <c r="C127" s="216" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D127" s="217"/>
       <c r="E127" s="157" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G127" s="218"/>
       <c r="H127" s="5"/>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="D128" s="63"/>
       <c r="E128" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F128" s="103" t="s">
         <v>12</v>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D129" s="63"/>
       <c r="E129" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F129" s="44" t="s">
         <v>12</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D130" s="219"/>
       <c r="E130" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F130" s="44" t="s">
         <v>12</v>
@@ -7753,7 +7753,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="19"/>
       <c r="C131" s="66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D131" s="220"/>
       <c r="E131" s="221" t="s">
@@ -7792,14 +7792,14 @@
       <c r="A132" s="5"/>
       <c r="B132" s="19"/>
       <c r="C132" s="66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D132" s="223"/>
       <c r="E132" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F132" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G132" s="222"/>
       <c r="H132" s="5"/>
@@ -7835,10 +7835,10 @@
       </c>
       <c r="D133" s="224"/>
       <c r="E133" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F133" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G133" s="222"/>
       <c r="H133" s="5"/>
@@ -7876,10 +7876,10 @@
         <v>67</v>
       </c>
       <c r="E134" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F134" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G134" s="62"/>
       <c r="H134" s="5"/>
@@ -7915,10 +7915,10 @@
       </c>
       <c r="D135" s="132"/>
       <c r="E135" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F135" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G135" s="62"/>
       <c r="H135" s="5"/>
@@ -7954,10 +7954,10 @@
       </c>
       <c r="D136" s="133"/>
       <c r="E136" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F136" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G136" s="62"/>
       <c r="H136" s="5"/>
@@ -7995,10 +7995,10 @@
         <v>71</v>
       </c>
       <c r="E137" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F137" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G137" s="55"/>
       <c r="H137" s="5"/>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="D138" s="120"/>
       <c r="E138" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F138" s="35" t="s">
         <v>12</v>
@@ -8111,12 +8111,12 @@
     <row r="140" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
       <c r="B140" s="19"/>
-      <c r="C140" s="153" t="s">
+      <c r="C140" s="146" t="s">
         <v>74</v>
       </c>
       <c r="D140" s="229"/>
       <c r="E140" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F140" s="103" t="s">
         <v>12</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="D141" s="229"/>
       <c r="E141" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F141" s="103" t="s">
         <v>12</v>
@@ -8193,12 +8193,12 @@
     <row r="142" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
       <c r="B142" s="19"/>
-      <c r="C142" s="153" t="s">
-        <v>121</v>
+      <c r="C142" s="146" t="s">
+        <v>76</v>
       </c>
       <c r="D142" s="229"/>
       <c r="E142" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F142" s="59" t="s">
         <v>12</v>
@@ -8235,7 +8235,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="19"/>
       <c r="C143" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D143" s="78" t="s">
         <v>12</v>
@@ -8244,7 +8244,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G143" s="62"/>
       <c r="H143" s="5"/>
@@ -8276,16 +8276,16 @@
       <c r="A144" s="5"/>
       <c r="B144" s="19"/>
       <c r="C144" s="231" t="s">
-        <v>77</v>
-      </c>
-      <c r="D144" s="147"/>
+        <v>78</v>
+      </c>
+      <c r="D144" s="148"/>
       <c r="E144" s="232" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="G144" s="151"/>
+        <v>104</v>
+      </c>
+      <c r="G144" s="152"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -8314,12 +8314,12 @@
     <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
       <c r="B145" s="19"/>
-      <c r="C145" s="153" t="s">
-        <v>78</v>
+      <c r="C145" s="146" t="s">
+        <v>79</v>
       </c>
       <c r="D145" s="229"/>
       <c r="E145" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F145" s="36" t="s">
         <v>12</v>
@@ -8353,12 +8353,12 @@
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
       <c r="B146" s="19"/>
-      <c r="C146" s="153" t="s">
-        <v>79</v>
+      <c r="C146" s="146" t="s">
+        <v>80</v>
       </c>
       <c r="D146" s="233"/>
       <c r="E146" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F146" s="36" t="s">
         <v>12</v>
@@ -8392,7 +8392,7 @@
     <row r="147" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
       <c r="B147" s="19"/>
-      <c r="C147" s="153" t="s">
+      <c r="C147" s="146" t="s">
         <v>122</v>
       </c>
       <c r="D147" s="78" t="s">
@@ -8402,7 +8402,7 @@
         <v>12</v>
       </c>
       <c r="F147" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G147" s="155"/>
       <c r="H147" s="5"/>
@@ -8433,14 +8433,14 @@
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
       <c r="B148" s="19"/>
-      <c r="C148" s="153" t="s">
-        <v>81</v>
+      <c r="C148" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="D148" s="78" t="s">
         <v>12</v>
       </c>
       <c r="E148" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F148" s="59" t="s">
         <v>12</v>
@@ -8476,14 +8476,14 @@
     <row r="149" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
       <c r="B149" s="19"/>
-      <c r="C149" s="153" t="s">
-        <v>82</v>
+      <c r="C149" s="146" t="s">
+        <v>83</v>
       </c>
       <c r="D149" s="78" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F149" s="59" t="s">
         <v>12</v>
@@ -8520,14 +8520,14 @@
       <c r="A150" s="5"/>
       <c r="B150" s="19"/>
       <c r="C150" s="66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D150" s="66"/>
       <c r="E150" s="157" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G150" s="70"/>
       <c r="H150" s="5"/>
@@ -8559,14 +8559,14 @@
       <c r="A151" s="5"/>
       <c r="B151" s="19"/>
       <c r="C151" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D151" s="120"/>
       <c r="E151" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F151" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G151" s="62"/>
       <c r="H151" s="5"/>
@@ -8598,14 +8598,14 @@
       <c r="A152" s="5"/>
       <c r="B152" s="19"/>
       <c r="C152" s="93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D152" s="120"/>
       <c r="E152" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F152" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G152" s="62"/>
       <c r="H152" s="5"/>
@@ -8637,14 +8637,14 @@
       <c r="A153" s="5"/>
       <c r="B153" s="19"/>
       <c r="C153" s="93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D153" s="120"/>
       <c r="E153" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F153" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G153" s="62"/>
       <c r="H153" s="5"/>
@@ -8676,14 +8676,14 @@
       <c r="A154" s="5"/>
       <c r="B154" s="19"/>
       <c r="C154" s="234" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D154" s="234"/>
       <c r="E154" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G154" s="83"/>
       <c r="H154" s="5"/>
@@ -8715,11 +8715,11 @@
       <c r="A155" s="5"/>
       <c r="B155" s="19"/>
       <c r="C155" s="159" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D155" s="235"/>
       <c r="E155" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F155" s="171" t="s">
         <v>12</v>
@@ -8756,14 +8756,14 @@
       <c r="A156" s="5"/>
       <c r="B156" s="19"/>
       <c r="C156" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D156" s="120"/>
       <c r="E156" s="36" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G156" s="62"/>
       <c r="H156" s="5"/>
@@ -8795,14 +8795,14 @@
       <c r="A157" s="5"/>
       <c r="B157" s="19"/>
       <c r="C157" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D157" s="73"/>
       <c r="E157" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F157" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G157" s="62"/>
       <c r="H157" s="5"/>
@@ -8834,14 +8834,14 @@
       <c r="A158" s="5"/>
       <c r="B158" s="19"/>
       <c r="C158" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D158" s="73"/>
       <c r="E158" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F158" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G158" s="62"/>
       <c r="H158" s="5"/>
@@ -8873,7 +8873,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="19"/>
       <c r="C159" s="162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D159" s="237" t="s">
         <v>12</v>
@@ -9480,7 +9480,7 @@
     <row r="175" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="5"/>
       <c r="B175" s="19"/>
-      <c r="C175" s="147" t="s">
+      <c r="C175" s="148" t="s">
         <v>130</v>
       </c>
       <c r="D175" s="254" t="s">
@@ -9492,7 +9492,7 @@
       <c r="F175" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="G175" s="151"/>
+      <c r="G175" s="152"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -9521,13 +9521,13 @@
     <row r="176" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="5"/>
       <c r="B176" s="19"/>
-      <c r="C176" s="147" t="s">
+      <c r="C176" s="148" t="s">
         <v>131</v>
       </c>
       <c r="D176" s="256"/>
       <c r="E176" s="257"/>
       <c r="F176" s="258"/>
-      <c r="G176" s="151"/>
+      <c r="G176" s="152"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -9976,7 +9976,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="19"/>
       <c r="C188" s="63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D188" s="63"/>
       <c r="E188" s="88" t="s">
@@ -10352,7 +10352,7 @@
       <c r="A198" s="5"/>
       <c r="B198" s="19"/>
       <c r="C198" s="66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D198" s="66"/>
       <c r="E198" s="116" t="s">
@@ -11305,7 +11305,7 @@
     <row r="224" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="5"/>
       <c r="B224" s="19"/>
-      <c r="C224" s="153" t="s">
+      <c r="C224" s="146" t="s">
         <v>74</v>
       </c>
       <c r="D224" s="144"/>
@@ -11344,7 +11344,7 @@
     <row r="225" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="5"/>
       <c r="B225" s="19"/>
-      <c r="C225" s="153" t="s">
+      <c r="C225" s="146" t="s">
         <v>75</v>
       </c>
       <c r="D225" s="144"/>
@@ -11383,8 +11383,8 @@
     <row r="226" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
       <c r="B226" s="19"/>
-      <c r="C226" s="153" t="s">
-        <v>121</v>
+      <c r="C226" s="146" t="s">
+        <v>76</v>
       </c>
       <c r="D226" s="144"/>
       <c r="E226" s="145"/>
@@ -11423,7 +11423,7 @@
       <c r="A227" s="5"/>
       <c r="B227" s="19"/>
       <c r="C227" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D227" s="78" t="s">
         <v>12</v>
@@ -11461,15 +11461,15 @@
     <row r="228" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="5"/>
       <c r="B228" s="19"/>
-      <c r="C228" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="D228" s="147"/>
-      <c r="E228" s="149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228" s="150"/>
-      <c r="G228" s="151"/>
+      <c r="C228" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="D228" s="148"/>
+      <c r="E228" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="151"/>
+      <c r="G228" s="152"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
@@ -11499,7 +11499,7 @@
       <c r="A229" s="5"/>
       <c r="B229" s="19"/>
       <c r="C229" s="279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D229" s="144"/>
       <c r="E229" s="43"/>
@@ -11535,8 +11535,8 @@
     <row r="230" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
-      <c r="C230" s="153" t="s">
-        <v>79</v>
+      <c r="C230" s="146" t="s">
+        <v>80</v>
       </c>
       <c r="D230" s="233"/>
       <c r="E230" s="43"/>
@@ -11572,7 +11572,7 @@
     <row r="231" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
-      <c r="C231" s="153" t="s">
+      <c r="C231" s="146" t="s">
         <v>122</v>
       </c>
       <c r="D231" s="78" t="s">
@@ -11611,8 +11611,8 @@
     <row r="232" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
-      <c r="C232" s="153" t="s">
-        <v>81</v>
+      <c r="C232" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="D232" s="78" t="s">
         <v>12</v>
@@ -11652,8 +11652,8 @@
     <row r="233" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
-      <c r="C233" s="153" t="s">
-        <v>82</v>
+      <c r="C233" s="146" t="s">
+        <v>83</v>
       </c>
       <c r="D233" s="38" t="s">
         <v>12</v>
@@ -11694,7 +11694,7 @@
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D234" s="280"/>
       <c r="E234" s="116" t="s">
@@ -11731,7 +11731,7 @@
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D235" s="281"/>
       <c r="E235" s="58"/>
@@ -11766,7 +11766,7 @@
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D236" s="282"/>
       <c r="E236" s="58"/>
@@ -11801,7 +11801,7 @@
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D237" s="281"/>
       <c r="E237" s="58"/>
@@ -11836,7 +11836,7 @@
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="234" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D238" s="283"/>
       <c r="E238" s="284" t="s">
@@ -11873,7 +11873,7 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="137" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D239" s="281"/>
       <c r="E239" s="58"/>
@@ -11912,7 +11912,7 @@
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D240" s="281"/>
       <c r="E240" s="59" t="s">
@@ -11949,7 +11949,7 @@
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D241" s="286"/>
       <c r="E241" s="89"/>
@@ -11984,7 +11984,7 @@
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D242" s="286"/>
       <c r="E242" s="89"/>
@@ -12019,7 +12019,7 @@
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D243" s="287" t="s">
         <v>12</v>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D245" s="290"/>
       <c r="E245" s="291" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F245" s="35" t="s">
         <v>12</v>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="D246" s="293"/>
       <c r="E246" s="294" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F246" s="59" t="s">
         <v>12</v>
@@ -12226,7 +12226,7 @@
         <v>12</v>
       </c>
       <c r="G248" s="298" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
@@ -12261,13 +12261,13 @@
       </c>
       <c r="D249" s="73"/>
       <c r="E249" s="296" t="s">
+        <v>96</v>
+      </c>
+      <c r="F249" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="299" t="s">
         <v>95</v>
-      </c>
-      <c r="F249" s="166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G249" s="299" t="s">
-        <v>94</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="D250" s="95"/>
       <c r="E250" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F250" s="166" t="s">
         <v>12</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="F252" s="300"/>
       <c r="G252" s="301" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="D253" s="303"/>
       <c r="E253" s="58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F253" s="35" t="s">
         <v>12</v>
@@ -12462,7 +12462,7 @@
       <c r="E254" s="275"/>
       <c r="F254" s="102"/>
       <c r="G254" s="70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
@@ -12498,10 +12498,10 @@
       <c r="D255" s="66"/>
       <c r="E255" s="275"/>
       <c r="F255" s="102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G255" s="306" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="F256" s="102"/>
       <c r="G256" s="70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
@@ -12575,11 +12575,11 @@
       </c>
       <c r="D257" s="66"/>
       <c r="E257" s="158" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F257" s="102"/>
       <c r="G257" s="70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
@@ -12617,7 +12617,7 @@
         <v>12</v>
       </c>
       <c r="F258" s="102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G258" s="62"/>
       <c r="H258" s="5"/>
@@ -12655,10 +12655,10 @@
       <c r="E259" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="F259" s="149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G259" s="151"/>
+      <c r="F259" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="152"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -12692,13 +12692,13 @@
       </c>
       <c r="D260" s="198"/>
       <c r="E260" s="312" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F260" s="313" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G260" s="202" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="D261" s="314"/>
       <c r="E261" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F261" s="103" t="s">
         <v>12</v>
@@ -12770,11 +12770,11 @@
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="194" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D262" s="194"/>
       <c r="E262" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F262" s="166" t="s">
         <v>12</v>
@@ -12813,10 +12813,10 @@
       </c>
       <c r="D263" s="316"/>
       <c r="E263" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F263" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G263" s="78" t="s">
         <v>12</v>
@@ -12856,10 +12856,10 @@
         <v>41</v>
       </c>
       <c r="E264" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F264" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G264" s="78" t="s">
         <v>12</v>
@@ -12896,10 +12896,10 @@
       </c>
       <c r="D265" s="180"/>
       <c r="E265" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F265" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G265" s="78" t="s">
         <v>12</v>
@@ -12914,10 +12914,10 @@
         <v>41</v>
       </c>
       <c r="E266" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F266" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G266" s="78" t="s">
         <v>12</v>
@@ -12930,10 +12930,10 @@
       </c>
       <c r="D267" s="95"/>
       <c r="E267" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F267" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G267" s="78" t="s">
         <v>12</v>
@@ -12948,10 +12948,10 @@
         <v>41</v>
       </c>
       <c r="E268" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F268" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G268" s="78" t="s">
         <v>12</v>
@@ -12966,10 +12966,10 @@
         <v>47</v>
       </c>
       <c r="E269" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F269" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G269" s="78" t="s">
         <v>12</v>
@@ -12981,10 +12981,10 @@
       </c>
       <c r="D270" s="95"/>
       <c r="E270" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F270" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G270" s="38" t="s">
         <v>12</v>
@@ -12996,10 +12996,10 @@
       </c>
       <c r="D271" s="73"/>
       <c r="E271" s="296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F271" s="117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G271" s="318"/>
     </row>
@@ -13023,7 +13023,7 @@
         <v>12</v>
       </c>
       <c r="F273" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G273" s="160"/>
     </row>
@@ -13033,10 +13033,10 @@
       </c>
       <c r="D274" s="120"/>
       <c r="E274" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F274" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G274" s="40"/>
     </row>
@@ -13049,7 +13049,7 @@
         <v>12</v>
       </c>
       <c r="F275" s="321" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G275" s="218"/>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="D276" s="120"/>
       <c r="E276" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F276" s="103" t="s">
         <v>12</v>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="D277" s="120"/>
       <c r="E277" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F277" s="88" t="s">
         <v>12</v>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="D278" s="120"/>
       <c r="E278" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F278" s="88" t="s">
         <v>12</v>
@@ -13113,10 +13113,10 @@
         <v>67</v>
       </c>
       <c r="E280" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F280" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G280" s="62"/>
     </row>
@@ -13126,10 +13126,10 @@
       </c>
       <c r="D281" s="132"/>
       <c r="E281" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F281" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G281" s="62"/>
     </row>
@@ -13139,10 +13139,10 @@
       </c>
       <c r="D282" s="133"/>
       <c r="E282" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F282" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G282" s="62"/>
     </row>
@@ -13154,10 +13154,10 @@
         <v>71</v>
       </c>
       <c r="E283" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F283" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G283" s="50"/>
     </row>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D284" s="235"/>
       <c r="E284" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F284" s="35" t="s">
         <v>12</v>
@@ -13192,12 +13192,12 @@
       <c r="G285" s="70"/>
     </row>
     <row r="286" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C286" s="153" t="s">
+      <c r="C286" s="146" t="s">
         <v>74</v>
       </c>
       <c r="D286" s="144"/>
       <c r="E286" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F286" s="44" t="s">
         <v>12</v>
@@ -13207,12 +13207,12 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C287" s="153" t="s">
+      <c r="C287" s="146" t="s">
         <v>75</v>
       </c>
       <c r="D287" s="144"/>
       <c r="E287" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F287" s="44" t="s">
         <v>12</v>
@@ -13222,12 +13222,12 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C288" s="153" t="s">
-        <v>121</v>
+      <c r="C288" s="146" t="s">
+        <v>76</v>
       </c>
       <c r="D288" s="144"/>
       <c r="E288" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F288" s="36" t="s">
         <v>12</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="289" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D289" s="78" t="s">
         <v>12</v>
@@ -13247,30 +13247,30 @@
         <v>12</v>
       </c>
       <c r="F289" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G289" s="62"/>
     </row>
     <row r="290" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C290" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="D290" s="147"/>
-      <c r="E290" s="149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="G290" s="151"/>
+      <c r="C290" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="D290" s="148"/>
+      <c r="E290" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="G290" s="152"/>
     </row>
     <row r="291" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D291" s="144"/>
       <c r="E291" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F291" s="36" t="s">
         <v>12</v>
@@ -13278,12 +13278,12 @@
       <c r="G291" s="155"/>
     </row>
     <row r="292" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C292" s="153" t="s">
-        <v>79</v>
+      <c r="C292" s="146" t="s">
+        <v>80</v>
       </c>
       <c r="D292" s="233"/>
       <c r="E292" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F292" s="36" t="s">
         <v>12</v>
@@ -13293,7 +13293,7 @@
     <row r="293" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
-      <c r="C293" s="153" t="s">
+      <c r="C293" s="146" t="s">
         <v>122</v>
       </c>
       <c r="D293" s="78" t="s">
@@ -13303,7 +13303,7 @@
         <v>12</v>
       </c>
       <c r="F293" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G293" s="155"/>
       <c r="H293" s="5"/>
@@ -13334,14 +13334,14 @@
     <row r="294" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
-      <c r="C294" s="153" t="s">
-        <v>81</v>
+      <c r="C294" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="D294" s="78" t="s">
         <v>12</v>
       </c>
       <c r="E294" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F294" s="59" t="s">
         <v>12</v>
@@ -13377,14 +13377,14 @@
     <row r="295" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
-      <c r="C295" s="153" t="s">
-        <v>82</v>
+      <c r="C295" s="146" t="s">
+        <v>83</v>
       </c>
       <c r="D295" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E295" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F295" s="59" t="s">
         <v>12</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="296" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D296" s="280"/>
       <c r="E296" s="116" t="s">
@@ -13430,46 +13430,46 @@
     </row>
     <row r="297" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D297" s="281"/>
       <c r="E297" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F297" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G297" s="62"/>
     </row>
     <row r="298" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D298" s="281"/>
       <c r="E298" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F298" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G298" s="62"/>
     </row>
     <row r="299" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D299" s="281"/>
       <c r="E299" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F299" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G299" s="62"/>
     </row>
     <row r="300" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="234" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D300" s="283"/>
       <c r="E300" s="284" t="s">
@@ -13480,11 +13480,11 @@
     </row>
     <row r="301" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="137" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D301" s="281"/>
       <c r="E301" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F301" s="171" t="s">
         <v>12</v>
@@ -13495,46 +13495,46 @@
     </row>
     <row r="302" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D302" s="281"/>
       <c r="E302" s="59" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G302" s="62"/>
     </row>
     <row r="303" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D303" s="286"/>
       <c r="E303" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F303" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G303" s="62"/>
     </row>
     <row r="304" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D304" s="286"/>
       <c r="E304" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F304" s="145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G304" s="62"/>
     </row>
     <row r="305" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D305" s="245" t="s">
         <v>12</v>
@@ -14530,7 +14530,7 @@
         <v>182</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14538,7 +14538,7 @@
         <v>183</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
